--- a/target/classes/datadriver/crmdata.xlsx
+++ b/target/classes/datadriver/crmdata.xlsx
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
